--- a/Archivos Excel/plays.xlsx
+++ b/Archivos Excel/plays.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\SkyDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE4F46F-D239-458E-A464-D544A91FF09F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA96904-F01A-49B4-932A-EE8B78A1089C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{D666C310-0E75-4CF4-BB28-E70BB998FDF8}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Archivos Excel/plays.xlsx
+++ b/Archivos Excel/plays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA96904-F01A-49B4-932A-EE8B78A1089C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA12B66-2CBE-4491-812C-E6566E4CB655}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{D666C310-0E75-4CF4-BB28-E70BB998FDF8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t xml:space="preserve"> 'Saxophone'</t>
   </si>
@@ -66,6 +66,30 @@
   </si>
   <si>
     <t>#Reincidentes´s Band ID: 430</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Electric Guitar'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Drum kit'</t>
+  </si>
+  <si>
+    <t>#The Rolling Stones´s Band ID: 431</t>
+  </si>
+  <si>
+    <t>#ACDC´s Band ID: 432</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Harmonica'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Maraces'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Percussion'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Electric Harp'</t>
   </si>
 </sst>
 </file>
@@ -81,12 +105,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,10 +131,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C198BB-EC58-40FA-A978-5B7EB1F31F7A}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,173 +471,435 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="3">
         <v>6166844</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>5334423</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>4628696</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>8484326</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>5427651</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>5264892</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>5672350</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>9452841</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>5392301</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>4136534</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>7376429</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>7376429</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>4949485</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>4949365</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>4949365</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>5453651</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>8321941</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>8321941</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>8321941</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>8321941</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>7984074</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>7984074</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>7984074</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>7984074</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>7438203</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>7438203</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>4632752</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>4632752</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>4632752</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>4632752</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>4632752</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>8372185</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>3245623</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>3144134</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>4321561</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>4321561</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="D36:E39"/>
+    <mergeCell ref="D20:E34"/>
     <mergeCell ref="D1:E5"/>
     <mergeCell ref="D7:E10"/>
     <mergeCell ref="D12:E18"/>

--- a/Archivos Excel/plays.xlsx
+++ b/Archivos Excel/plays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA12B66-2CBE-4491-812C-E6566E4CB655}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7A297F-899C-4D6D-B790-7B2A0741A5CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{D666C310-0E75-4CF4-BB28-E70BB998FDF8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t xml:space="preserve"> 'Saxophone'</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t xml:space="preserve"> 'Electric Harp'</t>
+  </si>
+  <si>
+    <t>insert into plays values(</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -133,16 +142,16 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,442 +467,589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C198BB-EC58-40FA-A978-5B7EB1F31F7A}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
         <v>6166844</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="E1" s="5"/>
+      <c r="G1" t="str">
+        <f>CONCATENATE($L$1,A1,$L$3,B1,$L$2)</f>
+        <v>insert into plays values(6166844, 'Saxophone');</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>5334423</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="C2" s="2"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G40" si="0">CONCATENATE($L$1,A2,$L$3,B2,$L$2)</f>
+        <v>insert into plays values(5334423, 'Piano');</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>4628696</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(4628696, 'Piano');</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>8484326</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(8484326, 'Double bass');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>5427651</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(5427651, 'Drums');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5264892</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="E7" s="5"/>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(5264892, 'Guitar');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>5672350</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(5672350, 'Bass');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>9452841</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(9452841, 'Drums');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>5392301</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(5392301, 'Saxophone');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>4136534</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="E12" s="5"/>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(4136534, 'Vocals');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>7376429</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(7376429, 'Bass');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>7376429</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(7376429, 'Vocals');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>4949485</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(4949485, 'Electric guitar');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>4949365</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(4949365, 'Electric guitar');</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>4949365</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(4949365, 'Acoustic guitar');</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>5453651</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(5453651, 'Drums');</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>8321941</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(8321941, 'Vocals');</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>8321941</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(8321941, 'Harmonica');</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>8321941</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(8321941, 'Guitar');</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>8321941</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(8321941, 'Maraces');</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>7984074</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(7984074, 'Vocals');</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>7984074</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(7984074, 'Piano');</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>7984074</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(7984074, 'Bass');</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>7984074</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(7984074, 'Guitar');</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>7438203</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(7438203, 'Percussion');</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>7438203</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(7438203, 'Drum kit');</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>4632752</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(4632752, 'Guitar');</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>4632752</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(4632752, 'Saxophone');</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>4632752</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(4632752, 'Bass');</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>4632752</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(4632752, 'Electric Harp');</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>4632752</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(4632752, 'Harmonica');</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>8372185</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="4"/>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(8372185, 'Vocals');</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>3245623</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(3245623, 'Electric Guitar');</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>3144134</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(3144134, 'Electric Guitar');</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>4321561</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(4321561, 'Drum kit');</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>4321561</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into plays values(4321561, 'Percussion');</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos Excel/plays.xlsx
+++ b/Archivos Excel/plays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7A297F-899C-4D6D-B790-7B2A0741A5CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F939E3B-5668-426F-9D92-5DAF1D0F09AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{D666C310-0E75-4CF4-BB28-E70BB998FDF8}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -469,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C198BB-EC58-40FA-A978-5B7EB1F31F7A}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
